--- a/1. web_crawling+preprocessing/output/nstore_stat_df.xlsx
+++ b/1. web_crawling+preprocessing/output/nstore_stat_df.xlsx
@@ -1134,13 +1134,13 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>24</v>
       </c>
       <c r="F17">
-        <v>0.3636363636363636</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>

--- a/1. web_crawling+preprocessing/output/nstore_stat_df.xlsx
+++ b/1. web_crawling+preprocessing/output/nstore_stat_df.xlsx
@@ -601,13 +601,13 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>57</v>
       </c>
       <c r="F4">
-        <v>0.6551724137931034</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
